--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.81239073009819</v>
+        <v>9.075182666666667</v>
       </c>
       <c r="H2">
-        <v>6.81239073009819</v>
+        <v>27.225548</v>
       </c>
       <c r="I2">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="J2">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N2">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O2">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P2">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q2">
-        <v>194.7171210992158</v>
+        <v>279.4226781124613</v>
       </c>
       <c r="R2">
-        <v>194.7171210992158</v>
+        <v>2514.804103012152</v>
       </c>
       <c r="S2">
-        <v>0.1885917509155484</v>
+        <v>0.1780197827231426</v>
       </c>
       <c r="T2">
-        <v>0.1885917509155484</v>
+        <v>0.1780197827231426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.81239073009819</v>
+        <v>9.075182666666667</v>
       </c>
       <c r="H3">
-        <v>6.81239073009819</v>
+        <v>27.225548</v>
       </c>
       <c r="I3">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="J3">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N3">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O3">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P3">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q3">
-        <v>15.30950924429765</v>
+        <v>20.39605255986978</v>
       </c>
       <c r="R3">
-        <v>15.30950924429765</v>
+        <v>183.564473038828</v>
       </c>
       <c r="S3">
-        <v>0.01482790592702274</v>
+        <v>0.01299429548684112</v>
       </c>
       <c r="T3">
-        <v>0.01482790592702274</v>
+        <v>0.01299429548684112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.81239073009819</v>
+        <v>9.075182666666667</v>
       </c>
       <c r="H4">
-        <v>6.81239073009819</v>
+        <v>27.225548</v>
       </c>
       <c r="I4">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="J4">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N4">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O4">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P4">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q4">
-        <v>5.518202402521323</v>
+        <v>8.076262185242221</v>
       </c>
       <c r="R4">
-        <v>5.518202402521323</v>
+        <v>72.68635966718</v>
       </c>
       <c r="S4">
-        <v>0.00534461195360223</v>
+        <v>0.00514537491782717</v>
       </c>
       <c r="T4">
-        <v>0.00534461195360223</v>
+        <v>0.005145374917827171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.81239073009819</v>
+        <v>9.075182666666667</v>
       </c>
       <c r="H5">
-        <v>6.81239073009819</v>
+        <v>27.225548</v>
       </c>
       <c r="I5">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="J5">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N5">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O5">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P5">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q5">
-        <v>10.65798439847677</v>
+        <v>14.66529251025378</v>
       </c>
       <c r="R5">
-        <v>10.65798439847677</v>
+        <v>131.987632592284</v>
       </c>
       <c r="S5">
-        <v>0.01032270777008436</v>
+        <v>0.009343236575794165</v>
       </c>
       <c r="T5">
-        <v>0.01032270777008436</v>
+        <v>0.009343236575794165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.81239073009819</v>
+        <v>9.075182666666667</v>
       </c>
       <c r="H6">
-        <v>6.81239073009819</v>
+        <v>27.225548</v>
       </c>
       <c r="I6">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="J6">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N6">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O6">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P6">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q6">
-        <v>2.007695885968392</v>
+        <v>2.690398402751111</v>
       </c>
       <c r="R6">
-        <v>2.007695885968392</v>
+        <v>24.21358562476</v>
       </c>
       <c r="S6">
-        <v>0.001944538211654193</v>
+        <v>0.00171404891804694</v>
       </c>
       <c r="T6">
-        <v>0.001944538211654193</v>
+        <v>0.00171404891804694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.81239073009819</v>
+        <v>9.075182666666667</v>
       </c>
       <c r="H7">
-        <v>6.81239073009819</v>
+        <v>27.225548</v>
       </c>
       <c r="I7">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="J7">
-        <v>0.3116375905021621</v>
+        <v>0.3406595837592796</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N7">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O7">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P7">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q7">
-        <v>93.54891787936107</v>
+        <v>209.454008947372</v>
       </c>
       <c r="R7">
-        <v>93.54891787936107</v>
+        <v>1885.086080526348</v>
       </c>
       <c r="S7">
-        <v>0.09060607572425024</v>
+        <v>0.1334428451376276</v>
       </c>
       <c r="T7">
-        <v>0.09060607572425024</v>
+        <v>0.1334428451376276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.45301730912108</v>
+        <v>3.463629333333333</v>
       </c>
       <c r="H8">
-        <v>3.45301730912108</v>
+        <v>10.390888</v>
       </c>
       <c r="I8">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="J8">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N8">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O8">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P8">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q8">
-        <v>98.69686225824083</v>
+        <v>106.6443089750347</v>
       </c>
       <c r="R8">
-        <v>98.69686225824083</v>
+        <v>959.7987807753119</v>
       </c>
       <c r="S8">
-        <v>0.09559207715313381</v>
+        <v>0.06794293448420248</v>
       </c>
       <c r="T8">
-        <v>0.09559207715313381</v>
+        <v>0.06794293448420249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.45301730912108</v>
+        <v>3.463629333333333</v>
       </c>
       <c r="H9">
-        <v>3.45301730912108</v>
+        <v>10.390888</v>
       </c>
       <c r="I9">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="J9">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N9">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O9">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P9">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q9">
-        <v>7.759977738967274</v>
+        <v>7.784346445174223</v>
       </c>
       <c r="R9">
-        <v>7.759977738967274</v>
+        <v>70.05911800656801</v>
       </c>
       <c r="S9">
-        <v>0.007515865993683335</v>
+        <v>0.00495939582346227</v>
       </c>
       <c r="T9">
-        <v>0.007515865993683335</v>
+        <v>0.004959395823462272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.45301730912108</v>
+        <v>3.463629333333333</v>
       </c>
       <c r="H10">
-        <v>3.45301730912108</v>
+        <v>10.390888</v>
       </c>
       <c r="I10">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="J10">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N10">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O10">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P10">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q10">
-        <v>2.797028116275564</v>
+        <v>3.082381879897778</v>
       </c>
       <c r="R10">
-        <v>2.797028116275564</v>
+        <v>27.74143691908</v>
       </c>
       <c r="S10">
-        <v>0.002709039794911753</v>
+        <v>0.001963781022484886</v>
       </c>
       <c r="T10">
-        <v>0.002709039794911753</v>
+        <v>0.001963781022484886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.45301730912108</v>
+        <v>3.463629333333333</v>
       </c>
       <c r="H11">
-        <v>3.45301730912108</v>
+        <v>10.390888</v>
       </c>
       <c r="I11">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="J11">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N11">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O11">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P11">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q11">
-        <v>5.402245124561767</v>
+        <v>5.597147648278222</v>
       </c>
       <c r="R11">
-        <v>5.402245124561767</v>
+        <v>50.374328834504</v>
       </c>
       <c r="S11">
-        <v>0.005232302435269475</v>
+        <v>0.00356593464405494</v>
       </c>
       <c r="T11">
-        <v>0.005232302435269475</v>
+        <v>0.003565934644054941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.45301730912108</v>
+        <v>3.463629333333333</v>
       </c>
       <c r="H12">
-        <v>3.45301730912108</v>
+        <v>10.390888</v>
       </c>
       <c r="I12">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="J12">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N12">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O12">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P12">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q12">
-        <v>1.017646949560704</v>
+        <v>1.026816006728889</v>
       </c>
       <c r="R12">
-        <v>1.017646949560704</v>
+        <v>9.241344060559999</v>
       </c>
       <c r="S12">
-        <v>0.0009856340261611065</v>
+        <v>0.0006541829877564607</v>
       </c>
       <c r="T12">
-        <v>0.0009856340261611065</v>
+        <v>0.0006541829877564609</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.45301730912108</v>
+        <v>3.463629333333333</v>
       </c>
       <c r="H13">
-        <v>3.45301730912108</v>
+        <v>10.390888</v>
       </c>
       <c r="I13">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="J13">
-        <v>0.1579606979121767</v>
+        <v>0.1300159534334917</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N13">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O13">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P13">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q13">
-        <v>47.41742590597477</v>
+        <v>79.94010435063198</v>
       </c>
       <c r="R13">
-        <v>47.41742590597477</v>
+        <v>719.4609391556879</v>
       </c>
       <c r="S13">
-        <v>0.04592577850901718</v>
+        <v>0.05092972447153066</v>
       </c>
       <c r="T13">
-        <v>0.04592577850901718</v>
+        <v>0.05092972447153068</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.32848453431605</v>
+        <v>1.804241333333333</v>
       </c>
       <c r="H14">
-        <v>1.32848453431605</v>
+        <v>5.412724</v>
       </c>
       <c r="I14">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="J14">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N14">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O14">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P14">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q14">
-        <v>37.97179201773783</v>
+        <v>55.55215402693066</v>
       </c>
       <c r="R14">
-        <v>37.97179201773783</v>
+        <v>499.9693862423759</v>
       </c>
       <c r="S14">
-        <v>0.03677728338217025</v>
+        <v>0.03539219671245329</v>
       </c>
       <c r="T14">
-        <v>0.03677728338217025</v>
+        <v>0.03539219671245329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.32848453431605</v>
+        <v>1.804241333333333</v>
       </c>
       <c r="H15">
-        <v>1.32848453431605</v>
+        <v>5.412724</v>
       </c>
       <c r="I15">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="J15">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N15">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O15">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P15">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q15">
-        <v>2.985507887731636</v>
+        <v>4.054948800151556</v>
       </c>
       <c r="R15">
-        <v>2.985507887731636</v>
+        <v>36.49453920136401</v>
       </c>
       <c r="S15">
-        <v>0.002891590409415504</v>
+        <v>0.002583401995975127</v>
       </c>
       <c r="T15">
-        <v>0.002891590409415504</v>
+        <v>0.002583401995975127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.32848453431605</v>
+        <v>1.804241333333333</v>
       </c>
       <c r="H16">
-        <v>1.32848453431605</v>
+        <v>5.412724</v>
       </c>
       <c r="I16">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="J16">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N16">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O16">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P16">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q16">
-        <v>1.076104827133071</v>
+        <v>1.605645482704444</v>
       </c>
       <c r="R16">
-        <v>1.076104827133071</v>
+        <v>14.45080934434</v>
       </c>
       <c r="S16">
-        <v>0.001042252948133366</v>
+        <v>0.001022954406894625</v>
       </c>
       <c r="T16">
-        <v>0.001042252948133366</v>
+        <v>0.001022954406894625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.32848453431605</v>
+        <v>1.804241333333333</v>
       </c>
       <c r="H17">
-        <v>1.32848453431605</v>
+        <v>5.412724</v>
       </c>
       <c r="I17">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="J17">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N17">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O17">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P17">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q17">
-        <v>2.078413878669884</v>
+        <v>2.915613699943556</v>
       </c>
       <c r="R17">
-        <v>2.078413878669884</v>
+        <v>26.240523299492</v>
       </c>
       <c r="S17">
-        <v>0.002013031572636107</v>
+        <v>0.00185753325705249</v>
       </c>
       <c r="T17">
-        <v>0.002013031572636107</v>
+        <v>0.00185753325705249</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.32848453431605</v>
+        <v>1.804241333333333</v>
       </c>
       <c r="H18">
-        <v>1.32848453431605</v>
+        <v>5.412724</v>
       </c>
       <c r="I18">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="J18">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N18">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O18">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P18">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q18">
-        <v>0.3915208389816661</v>
+        <v>0.5348793715422222</v>
       </c>
       <c r="R18">
-        <v>0.3915208389816661</v>
+        <v>4.81391434388</v>
       </c>
       <c r="S18">
-        <v>0.0003792044588922091</v>
+        <v>0.0003407708713847268</v>
       </c>
       <c r="T18">
-        <v>0.0003792044588922091</v>
+        <v>0.0003407708713847268</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.32848453431605</v>
+        <v>1.804241333333333</v>
       </c>
       <c r="H19">
-        <v>1.32848453431605</v>
+        <v>5.412724</v>
       </c>
       <c r="I19">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="J19">
-        <v>0.06077245649820111</v>
+        <v>0.06772669203366863</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N19">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O19">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P19">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q19">
-        <v>18.24297746981141</v>
+        <v>41.641650009236</v>
       </c>
       <c r="R19">
-        <v>18.24297746981141</v>
+        <v>374.774850083124</v>
       </c>
       <c r="S19">
-        <v>0.01766909372695368</v>
+        <v>0.02652983478990836</v>
       </c>
       <c r="T19">
-        <v>0.01766909372695368</v>
+        <v>0.02652983478990836</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.52158888432897</v>
+        <v>1.598019666666667</v>
       </c>
       <c r="H20">
-        <v>1.52158888432897</v>
+        <v>4.794059</v>
       </c>
       <c r="I20">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="J20">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N20">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O20">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P20">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q20">
-        <v>43.49125274686561</v>
+        <v>49.20263881590733</v>
       </c>
       <c r="R20">
-        <v>43.49125274686561</v>
+        <v>442.823749343166</v>
       </c>
       <c r="S20">
-        <v>0.04212311407820558</v>
+        <v>0.03134692978602033</v>
       </c>
       <c r="T20">
-        <v>0.04212311407820558</v>
+        <v>0.03134692978602033</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.52158888432897</v>
+        <v>1.598019666666667</v>
       </c>
       <c r="H21">
-        <v>1.52158888432897</v>
+        <v>4.794059</v>
       </c>
       <c r="I21">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="J21">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N21">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O21">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P21">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q21">
-        <v>3.419471961250695</v>
+        <v>3.591475159255445</v>
       </c>
       <c r="R21">
-        <v>3.419471961250695</v>
+        <v>32.323276433299</v>
       </c>
       <c r="S21">
-        <v>0.003311902932512542</v>
+        <v>0.002288123611959989</v>
       </c>
       <c r="T21">
-        <v>0.003311902932512542</v>
+        <v>0.002288123611959989</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.52158888432897</v>
+        <v>1.598019666666667</v>
       </c>
       <c r="H22">
-        <v>1.52158888432897</v>
+        <v>4.794059</v>
       </c>
       <c r="I22">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="J22">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N22">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O22">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P22">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q22">
-        <v>1.232524053568613</v>
+        <v>1.422122978590556</v>
       </c>
       <c r="R22">
-        <v>1.232524053568613</v>
+        <v>12.799106807315</v>
       </c>
       <c r="S22">
-        <v>0.001193751571489159</v>
+        <v>0.000906032485854228</v>
       </c>
       <c r="T22">
-        <v>0.001193751571489159</v>
+        <v>0.0009060324858542281</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.52158888432897</v>
+        <v>1.598019666666667</v>
       </c>
       <c r="H23">
-        <v>1.52158888432897</v>
+        <v>4.794059</v>
       </c>
       <c r="I23">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="J23">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N23">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O23">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P23">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q23">
-        <v>2.380525608788752</v>
+        <v>2.582364092227444</v>
       </c>
       <c r="R23">
-        <v>2.380525608788752</v>
+        <v>23.241276830047</v>
       </c>
       <c r="S23">
-        <v>0.002305639535580523</v>
+        <v>0.001645220415593295</v>
       </c>
       <c r="T23">
-        <v>0.002305639535580523</v>
+        <v>0.001645220415593295</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.52158888432897</v>
+        <v>1.598019666666667</v>
       </c>
       <c r="H24">
-        <v>1.52158888432897</v>
+        <v>4.794059</v>
       </c>
       <c r="I24">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="J24">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N24">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O24">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P24">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q24">
-        <v>0.4484310815739831</v>
+        <v>0.4737435836477777</v>
       </c>
       <c r="R24">
-        <v>0.4484310815739831</v>
+        <v>4.263692252829999</v>
       </c>
       <c r="S24">
-        <v>0.0004343244310596535</v>
+        <v>0.0003018213496383322</v>
       </c>
       <c r="T24">
-        <v>0.0004343244310596535</v>
+        <v>0.0003018213496383322</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.52158888432897</v>
+        <v>1.598019666666667</v>
       </c>
       <c r="H25">
-        <v>1.52158888432897</v>
+        <v>4.794059</v>
       </c>
       <c r="I25">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="J25">
-        <v>0.06960615038596275</v>
+        <v>0.0599856481661059</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N25">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O25">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P25">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q25">
-        <v>20.89471952296368</v>
+        <v>36.88208137005099</v>
       </c>
       <c r="R25">
-        <v>20.89471952296368</v>
+        <v>331.9387323304589</v>
       </c>
       <c r="S25">
-        <v>0.02023741783711531</v>
+        <v>0.02349752051703972</v>
       </c>
       <c r="T25">
-        <v>0.02023741783711531</v>
+        <v>0.02349752051703972</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.84478437459405</v>
+        <v>8.224885</v>
       </c>
       <c r="H26">
-        <v>6.84478437459405</v>
+        <v>24.674655</v>
       </c>
       <c r="I26">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="J26">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N26">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O26">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P26">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q26">
-        <v>195.6430217775603</v>
+        <v>253.24221872783</v>
       </c>
       <c r="R26">
-        <v>195.6430217775603</v>
+        <v>2279.17996855047</v>
       </c>
       <c r="S26">
-        <v>0.1894885248053693</v>
+        <v>0.1613402500426623</v>
       </c>
       <c r="T26">
-        <v>0.1894885248053693</v>
+        <v>0.1613402500426623</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.84478437459405</v>
+        <v>8.224885</v>
       </c>
       <c r="H27">
-        <v>6.84478437459405</v>
+        <v>24.674655</v>
       </c>
       <c r="I27">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="J27">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N27">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O27">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P27">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q27">
-        <v>15.38230759358709</v>
+        <v>18.48504795116167</v>
       </c>
       <c r="R27">
-        <v>15.38230759358709</v>
+        <v>166.365431560455</v>
       </c>
       <c r="S27">
-        <v>0.01489841420117323</v>
+        <v>0.01177679722391122</v>
       </c>
       <c r="T27">
-        <v>0.01489841420117323</v>
+        <v>0.01177679722391122</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.84478437459405</v>
+        <v>8.224885</v>
       </c>
       <c r="H28">
-        <v>6.84478437459405</v>
+        <v>24.674655</v>
       </c>
       <c r="I28">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="J28">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N28">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O28">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P28">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q28">
-        <v>5.544442043488144</v>
+        <v>7.319558199908333</v>
       </c>
       <c r="R28">
-        <v>5.544442043488144</v>
+        <v>65.876023799175</v>
       </c>
       <c r="S28">
-        <v>0.005370026153470184</v>
+        <v>0.00466327990691092</v>
       </c>
       <c r="T28">
-        <v>0.005370026153470184</v>
+        <v>0.004663279906910921</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.84478437459405</v>
+        <v>8.224885</v>
       </c>
       <c r="H29">
-        <v>6.84478437459405</v>
+        <v>24.674655</v>
       </c>
       <c r="I29">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="J29">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N29">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O29">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P29">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q29">
-        <v>10.70866425101684</v>
+        <v>13.29123047090167</v>
       </c>
       <c r="R29">
-        <v>10.70866425101684</v>
+        <v>119.621074238115</v>
       </c>
       <c r="S29">
-        <v>0.01037179334649755</v>
+        <v>0.008467823644582007</v>
       </c>
       <c r="T29">
-        <v>0.01037179334649755</v>
+        <v>0.008467823644582009</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.84478437459405</v>
+        <v>8.224885</v>
       </c>
       <c r="H30">
-        <v>6.84478437459405</v>
+        <v>24.674655</v>
       </c>
       <c r="I30">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="J30">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N30">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O30">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P30">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q30">
-        <v>2.017242694036596</v>
+        <v>2.438321990816667</v>
       </c>
       <c r="R30">
-        <v>2.017242694036596</v>
+        <v>21.94489791735</v>
       </c>
       <c r="S30">
-        <v>0.001953784698244963</v>
+        <v>0.001553451401820508</v>
       </c>
       <c r="T30">
-        <v>0.001953784698244963</v>
+        <v>0.001553451401820508</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.84478437459405</v>
+        <v>8.224885</v>
       </c>
       <c r="H31">
-        <v>6.84478437459405</v>
+        <v>24.674655</v>
       </c>
       <c r="I31">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="J31">
-        <v>0.313119460482648</v>
+        <v>0.3087415431161873</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N31">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O31">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P31">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q31">
-        <v>93.99375296131956</v>
+        <v>189.829251890295</v>
       </c>
       <c r="R31">
-        <v>93.99375296131956</v>
+        <v>1708.463267012655</v>
       </c>
       <c r="S31">
-        <v>0.09103691727789288</v>
+        <v>0.1209399408963003</v>
       </c>
       <c r="T31">
-        <v>0.09103691727789288</v>
+        <v>0.1209399408963004</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.89971171107528</v>
+        <v>2.474075333333333</v>
       </c>
       <c r="H32">
-        <v>1.89971171107528</v>
+        <v>7.422226</v>
       </c>
       <c r="I32">
-        <v>0.08690364421884925</v>
+        <v>0.0928705794912669</v>
       </c>
       <c r="J32">
-        <v>0.08690364421884925</v>
+        <v>0.09287057949126691</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N32">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O32">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P32">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q32">
-        <v>54.29905740208653</v>
+        <v>76.17618078710265</v>
       </c>
       <c r="R32">
-        <v>54.29905740208653</v>
+        <v>685.5856270839239</v>
       </c>
       <c r="S32">
-        <v>0.05259092909095299</v>
+        <v>0.04853173423146744</v>
       </c>
       <c r="T32">
-        <v>0.05259092909095299</v>
+        <v>0.04853173423146744</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.89971171107528</v>
+        <v>2.474075333333333</v>
       </c>
       <c r="H33">
-        <v>1.89971171107528</v>
+        <v>7.422226</v>
       </c>
       <c r="I33">
-        <v>0.08690364421884925</v>
+        <v>0.0928705794912669</v>
       </c>
       <c r="J33">
-        <v>0.08690364421884925</v>
+        <v>0.09287057949126691</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N33">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O33">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P33">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q33">
-        <v>4.269228697307605</v>
+        <v>5.560369679509557</v>
       </c>
       <c r="R33">
-        <v>4.269228697307605</v>
+        <v>50.04332711558601</v>
       </c>
       <c r="S33">
-        <v>0.004134928200144746</v>
+        <v>0.003542503453525153</v>
       </c>
       <c r="T33">
-        <v>0.004134928200144746</v>
+        <v>0.003542503453525153</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.89971171107528</v>
+        <v>2.474075333333333</v>
       </c>
       <c r="H34">
-        <v>1.89971171107528</v>
+        <v>7.422226</v>
       </c>
       <c r="I34">
-        <v>0.08690364421884925</v>
+        <v>0.0928705794912669</v>
       </c>
       <c r="J34">
-        <v>0.08690364421884925</v>
+        <v>0.09287057949126691</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N34">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O34">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P34">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q34">
-        <v>1.538812752157334</v>
+        <v>2.201749737934445</v>
       </c>
       <c r="R34">
-        <v>1.538812752157334</v>
+        <v>19.81574764141</v>
       </c>
       <c r="S34">
-        <v>0.00149040510470907</v>
+        <v>0.001402731562826382</v>
       </c>
       <c r="T34">
-        <v>0.00149040510470907</v>
+        <v>0.001402731562826382</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.89971171107528</v>
+        <v>2.474075333333333</v>
       </c>
       <c r="H35">
-        <v>1.89971171107528</v>
+        <v>7.422226</v>
       </c>
       <c r="I35">
-        <v>0.08690364421884925</v>
+        <v>0.0928705794912669</v>
       </c>
       <c r="J35">
-        <v>0.08690364421884925</v>
+        <v>0.09287057949126691</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N35">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O35">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P35">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q35">
-        <v>2.972098721347435</v>
+        <v>3.998050484317555</v>
       </c>
       <c r="R35">
-        <v>2.972098721347435</v>
+        <v>35.982454358858</v>
       </c>
       <c r="S35">
-        <v>0.00287860306576314</v>
+        <v>0.002547152161528959</v>
       </c>
       <c r="T35">
-        <v>0.00287860306576314</v>
+        <v>0.002547152161528959</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.89971171107528</v>
+        <v>2.474075333333333</v>
       </c>
       <c r="H36">
-        <v>1.89971171107528</v>
+        <v>7.422226</v>
       </c>
       <c r="I36">
-        <v>0.08690364421884925</v>
+        <v>0.0928705794912669</v>
       </c>
       <c r="J36">
-        <v>0.08690364421884925</v>
+        <v>0.09287057949126691</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N36">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O36">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P36">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q36">
-        <v>0.5598685597995404</v>
+        <v>0.7334561264022222</v>
       </c>
       <c r="R36">
-        <v>0.5598685597995404</v>
+        <v>6.60110513762</v>
       </c>
       <c r="S36">
-        <v>0.0005422563325664686</v>
+        <v>0.000467283833728521</v>
       </c>
       <c r="T36">
-        <v>0.0005422563325664686</v>
+        <v>0.0004672838337285211</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.89971171107528</v>
+        <v>2.474075333333333</v>
       </c>
       <c r="H37">
-        <v>1.89971171107528</v>
+        <v>7.422226</v>
       </c>
       <c r="I37">
-        <v>0.08690364421884925</v>
+        <v>0.0928705794912669</v>
       </c>
       <c r="J37">
-        <v>0.08690364421884925</v>
+        <v>0.09287057949126691</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N37">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O37">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P37">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q37">
-        <v>26.08716703060871</v>
+        <v>57.101329641314</v>
       </c>
       <c r="R37">
-        <v>26.08716703060871</v>
+        <v>513.911966771826</v>
       </c>
       <c r="S37">
-        <v>0.02526652242471284</v>
+        <v>0.03637917424819045</v>
       </c>
       <c r="T37">
-        <v>0.02526652242471284</v>
+        <v>0.03637917424819045</v>
       </c>
     </row>
   </sheetData>
